--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Keycapture_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -296,12 +296,6 @@
     <t>Change Start page</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>wait(3);
 SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
@@ -310,7 +304,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -770,18 +763,18 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J2" sqref="J2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -837,15 +830,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="180.75" thickBot="1">
@@ -872,9 +863,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="282" thickBot="1">
@@ -901,9 +890,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="225.75" thickBot="1">
@@ -930,9 +917,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="270.75" thickBot="1">
@@ -957,9 +942,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="180.75" thickBot="1">
@@ -986,9 +969,7 @@
         <v>23</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="225.75" thickBot="1">
@@ -1015,9 +996,7 @@
         <v>22</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
   </sheetData>
@@ -1036,12 +1015,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Keycapture_JS.xlsx
@@ -297,7 +297,15 @@
   </si>
   <si>
     <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -763,7 +771,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -810,7 +818,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="39" thickBot="1">
+    <row r="2" spans="1:11" ht="332.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Keycapture_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Keycapture_JS.xlsx
@@ -299,11 +299,7 @@
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
   </si>
@@ -771,7 +767,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,7 +814,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="332.25" thickBot="1">
+    <row r="2" spans="1:11" ht="243" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
